--- a/Forecasting_Code/Y_hat_df.xlsx
+++ b/Forecasting_Code/Y_hat_df.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>AutoETS</t>
+          <t>AutoRegressive</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -464,11 +464,6 @@
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>CES</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RealValues</t>
         </is>
@@ -479,22 +474,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45342</v>
+        <v>45383</v>
       </c>
       <c r="C2" t="n">
-        <v>1.299557089805603</v>
+        <v>4.206220626831055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6998056769371033</v>
+        <v>3.783624649047852</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1007210314273834</v>
+        <v>2.856744766235352</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5173642635345459</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -502,21 +494,18 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45342.04166666666</v>
+        <v>45383.04166666666</v>
       </c>
       <c r="C3" t="n">
-        <v>1.311191558837891</v>
+        <v>3.097261428833008</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6996413469314575</v>
+        <v>4.150661468505859</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.7821900844573975</v>
+        <v>2.448770523071289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5415184497833252</v>
-      </c>
-      <c r="G3" t="n">
         <v>3.6</v>
       </c>
     </row>
@@ -525,22 +514,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45342.08333333334</v>
+        <v>45383.08333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>1.387146472930908</v>
+        <v>2.447803974151611</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6995087265968323</v>
+        <v>4.708795547485352</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.030423521995544</v>
+        <v>2.145798921585083</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8522880077362061</v>
-      </c>
-      <c r="G4" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="5">
@@ -548,22 +534,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>45342.125</v>
+        <v>45383.125</v>
       </c>
       <c r="C5" t="n">
-        <v>1.49525773525238</v>
+        <v>2.123332262039185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6994017362594604</v>
+        <v>5.220529079437256</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.234783887863159</v>
+        <v>1.883137226104736</v>
       </c>
       <c r="F5" t="n">
-        <v>1.12772274017334</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -571,21 +554,18 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>45342.16666666666</v>
+        <v>45383.16666666666</v>
       </c>
       <c r="C6" t="n">
-        <v>1.531481385231018</v>
+        <v>1.640612006187439</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6993153095245361</v>
+        <v>5.773547172546387</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.512307405471802</v>
+        <v>1.587535858154297</v>
       </c>
       <c r="F6" t="n">
-        <v>1.377654314041138</v>
-      </c>
-      <c r="G6" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -594,22 +574,19 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>45342.20833333334</v>
+        <v>45383.20833333334</v>
       </c>
       <c r="C7" t="n">
-        <v>1.161443710327148</v>
+        <v>2.176046371459961</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6992456316947937</v>
+        <v>6.293278694152832</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.842453122138977</v>
+        <v>1.268598794937134</v>
       </c>
       <c r="F7" t="n">
-        <v>1.159710764884949</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
@@ -622,17 +599,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.176013813151044</v>
+        <v>1.412218917851492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RMSE AutoETS:</t>
+          <t>RMSE AutoRegressive:</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.787080128332144</v>
+        <v>2.671808019472222</v>
       </c>
     </row>
     <row r="11">
@@ -642,17 +619,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.592572041920305</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RMSE AutoCES:</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.598750738957504</v>
+        <v>1.717270456782741</v>
       </c>
     </row>
   </sheetData>

--- a/Forecasting_Code/Y_hat_df.xlsx
+++ b/Forecasting_Code/Y_hat_df.xlsx
@@ -1,45 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesus\Downloads\forecasting\Weather-Forecasting-Scraping\Forecasting_Code\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E51C2-19F5-47BA-B03B-C37FAA6141F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>unique_id</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>AutoARIMA</t>
+  </si>
+  <si>
+    <t>AutoRegressive</t>
+  </si>
+  <si>
+    <t>AutoTheta</t>
+  </si>
+  <si>
+    <t>RealValues</t>
+  </si>
+  <si>
+    <t>RMSE AutoARIMA:</t>
+  </si>
+  <si>
+    <t>RMSE AutoRegressive:</t>
+  </si>
+  <si>
+    <t>RMSE AutoTheta:</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>RMSE LSTM</t>
+  </si>
+  <si>
+    <t>RMSE NBEATS</t>
+  </si>
+  <si>
+    <t>NBEATS</t>
+  </si>
+  <si>
+    <t>AutoLSTM</t>
+  </si>
+  <si>
+    <t>PatchTST</t>
+  </si>
+  <si>
+    <t>RMSE PatchTST</t>
+  </si>
+  <si>
+    <t>RMSE AutoLSTM</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -48,95 +147,72 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,205 +500,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>unique_id</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ds</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AutoARIMA</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>AutoRegressive</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AutoTheta</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RealValues</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>45383</v>
       </c>
-      <c r="C2" t="n">
-        <v>4.206220626831055</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" s="5">
+        <v>4.2062206268310547</v>
+      </c>
+      <c r="D2" s="5">
         <v>3.783624649047852</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="5">
         <v>2.856744766235352</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="G2" s="9">
+        <v>3.3889469999999999</v>
+      </c>
+      <c r="H2" s="9">
+        <v>4.2148490000000001</v>
+      </c>
+      <c r="I2" s="10">
+        <v>7.6600599999999996</v>
+      </c>
+      <c r="J2" s="11">
+        <v>3.2261609999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="n">
-        <v>45383.04166666666</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.097261428833008</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.150661468505859</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2.448770523071289</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="B3" s="2">
+        <v>45383.041666666657</v>
+      </c>
+      <c r="C3" s="5">
+        <v>3.0972614288330078</v>
+      </c>
+      <c r="D3" s="5">
+        <v>4.1506614685058594</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2.4487705230712891</v>
+      </c>
+      <c r="F3" s="4">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="G3" s="9">
+        <v>3.962418</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6.3090640000000002</v>
+      </c>
+      <c r="I3" s="10">
+        <v>7.6600599999999996</v>
+      </c>
+      <c r="J3" s="11">
+        <v>3.358784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>45383.08333333334</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.447803974151611</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.708795547485352</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="B4" s="2">
+        <v>45383.083333333343</v>
+      </c>
+      <c r="C4" s="5">
+        <v>2.4478039741516109</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.7087955474853516</v>
+      </c>
+      <c r="E4" s="5">
         <v>2.145798921585083</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="4">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="G4" s="9">
+        <v>4.0529460000000004</v>
+      </c>
+      <c r="H4" s="9">
+        <v>9.4388009999999998</v>
+      </c>
+      <c r="I4" s="10">
+        <v>7.6600599999999996</v>
+      </c>
+      <c r="J4" s="11">
+        <v>3.1387049999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="2">
         <v>45383.125</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5">
         <v>2.123332262039185</v>
       </c>
-      <c r="D5" t="n">
-        <v>5.220529079437256</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.883137226104736</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="D5" s="5">
+        <v>5.2205290794372559</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1.8831372261047361</v>
+      </c>
+      <c r="F5" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="G5" s="9">
+        <v>4.1998410000000002</v>
+      </c>
+      <c r="H5" s="9">
+        <v>9.0704440000000002</v>
+      </c>
+      <c r="I5" s="10">
+        <v>7.6600599999999996</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.8683610000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="n">
-        <v>45383.16666666666</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2">
+        <v>45383.166666666657</v>
+      </c>
+      <c r="C6" s="5">
         <v>1.640612006187439</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.773547172546387</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.587535858154297</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6" s="5">
+        <v>5.7735471725463867</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1.5875358581542971</v>
+      </c>
+      <c r="F6" s="4">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="G6" s="9">
+        <v>4.3418869999999998</v>
+      </c>
+      <c r="H6" s="9">
+        <v>5.9808430000000001</v>
+      </c>
+      <c r="I6" s="10">
+        <v>7.6600599999999996</v>
+      </c>
+      <c r="J6" s="11">
+        <v>2.7536900000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="3" t="n">
-        <v>45383.20833333334</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.176046371459961</v>
-      </c>
-      <c r="D7" t="n">
+      <c r="B7" s="2">
+        <v>45383.208333333343</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.1760463714599609</v>
+      </c>
+      <c r="D7" s="5">
         <v>6.293278694152832</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5">
         <v>1.268598794937134</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="4">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>RMSE AutoARIMA:</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1.412218917851492</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>RMSE AutoRegressive:</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+      <c r="G7" s="9">
+        <v>4.4639249999999997</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4.1348830000000003</v>
+      </c>
+      <c r="I7" s="10">
+        <v>7.6600599999999996</v>
+      </c>
+      <c r="J7" s="11">
+        <v>3.7271230000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1.4122189178514919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
         <v>2.671808019472222</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RMSE AutoTheta:</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5">
         <v>1.717270456782741</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1.907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5.0179999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="10">
+        <v>5.024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11">
+        <v>1.228</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>